--- a/fsdata/금비.xlsx
+++ b/fsdata/금비.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project_A\fsdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fintech\Bit_Project1\fsdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996C3A15-469C-4DB0-9B21-520F5672DEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3108A95F-96DC-42D8-ACC6-F158BBFBC972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10635" yWindow="2925" windowWidth="16710" windowHeight="11130" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_bs" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3200" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3200" uniqueCount="831">
   <si>
     <t>[D210000] Statement of financial position, current/non-current - Consolidated financial statements (Unit: KRW)</t>
   </si>
@@ -2513,7 +2513,15 @@
     <t>배당금수입</t>
   </si>
   <si>
-    <t>매출 (액)</t>
+    <t>매출액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.제품매출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.상품매출</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8329,8 +8337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8372,7 +8380,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>829</v>
       </c>
       <c r="C5">
         <v>154689608134</v>
@@ -8383,7 +8391,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>258</v>
+        <v>830</v>
       </c>
       <c r="C6">
         <v>27494759777</v>
@@ -9682,7 +9690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
